--- a/Requisitos funcionais.xlsx
+++ b/Requisitos funcionais.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Utilizadores" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="61">
   <si>
     <t>Administrador</t>
   </si>
@@ -168,9 +168,6 @@
     <t>id's das posiçoes</t>
   </si>
   <si>
-    <t>Posição</t>
-  </si>
-  <si>
     <t>Entrevista</t>
   </si>
   <si>
@@ -183,10 +180,25 @@
     <t>ManytoMany</t>
   </si>
   <si>
-    <t>posicaço e entrevista?</t>
-  </si>
-  <si>
-    <t>guiao???</t>
+    <t>Gestor (manager)</t>
+  </si>
+  <si>
+    <t>Entrevistador (Interviewer)</t>
+  </si>
+  <si>
+    <t>Candidato (candidate)</t>
+  </si>
+  <si>
+    <t>Administrador (administrator)</t>
+  </si>
+  <si>
+    <t>Posição (Position)</t>
+  </si>
+  <si>
+    <t>Entrevista (interview)</t>
+  </si>
+  <si>
+    <t>Guião (guide)</t>
   </si>
 </sst>
 </file>
@@ -272,7 +284,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -289,6 +301,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -585,8 +599,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1155,109 +1169,122 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C4:E14"/>
+  <dimension ref="C3:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:5">
+    <row r="3" spans="3:10">
+      <c r="I3" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="J3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="3:10">
       <c r="C4" t="s">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="D4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" t="s">
         <v>52</v>
       </c>
-      <c r="E4" t="s">
+      <c r="J4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="3:10">
+      <c r="C5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="3:10">
+      <c r="C6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="5" spans="3:5">
-      <c r="C5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="E6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="3:10">
+      <c r="C7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" t="s">
         <v>52</v>
       </c>
-      <c r="E5" t="s">
+    </row>
+    <row r="8" spans="3:10">
+      <c r="D8" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="6" spans="3:5">
-      <c r="C6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="3:5">
-      <c r="C7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" t="s">
-        <v>54</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="E8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="3:10">
+      <c r="C9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="8" spans="3:5">
-      <c r="D8" t="s">
-        <v>54</v>
-      </c>
-      <c r="E8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="3:5">
-      <c r="C9" t="s">
-        <v>50</v>
-      </c>
-      <c r="D9" t="s">
-        <v>54</v>
       </c>
       <c r="E9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="3:5">
+    <row r="10" spans="3:10">
       <c r="C10" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="D10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E10" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="3:5">
+    <row r="11" spans="3:10">
       <c r="D11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E11" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="3:5">
-      <c r="C13" s="9" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="14" spans="3:5">
+    <row r="13" spans="3:10">
+      <c r="C13" s="11"/>
+    </row>
+    <row r="14" spans="3:10">
       <c r="C14" s="9" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
